--- a/Instances/K0017223_b2_fe25_NonStationary.xlsx
+++ b/Instances/K0017223_b2_fe25_NonStationary.xlsx
@@ -502,7 +502,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:2">
